--- a/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.0854439159134371</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04555756351559301</v>
+        <v>0.045557563515593</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05233310878617479</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01012774265787157</v>
+        <v>0.01033014238490651</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01952803980385206</v>
+        <v>0.01942404655992083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01222252728059291</v>
+        <v>0.0120948853176385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005219360624029503</v>
+        <v>0.005187713718198844</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05257944565992376</v>
+        <v>0.05151474441880215</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04976255987362822</v>
+        <v>0.04763722199286273</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05698404940646412</v>
+        <v>0.05610426504488752</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02955625741321099</v>
+        <v>0.03164246710623698</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03511749538869806</v>
+        <v>0.03394923022960427</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03778973217259581</v>
+        <v>0.03864737709123335</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03926732804452851</v>
+        <v>0.03823921435543907</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01957320134080472</v>
+        <v>0.02102678237205189</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04839010034718177</v>
+        <v>0.04612598450483021</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06848171338992587</v>
+        <v>0.06817154734857366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05138564484532904</v>
+        <v>0.05197857412620882</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03098370701687777</v>
+        <v>0.03081267217966682</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1194238400575174</v>
+        <v>0.1228109764644271</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1134311547122397</v>
+        <v>0.110194317393174</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1205895058487076</v>
+        <v>0.1299027957008567</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06417925832826757</v>
+        <v>0.06599573273697043</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07376777399753756</v>
+        <v>0.07400638673029129</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07852459618134232</v>
+        <v>0.07821023463336262</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07741680642162559</v>
+        <v>0.0766635356541332</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04017948947058044</v>
+        <v>0.04146013937410732</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002187820614598593</v>
+        <v>0.002023051382225167</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01214092260488108</v>
+        <v>0.01080669343153811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006429205657337235</v>
+        <v>0.006272604546622221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02192754084320423</v>
+        <v>0.0219947980742998</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04052501296532855</v>
+        <v>0.03996813224246617</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05826955801931218</v>
+        <v>0.05893214295118965</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04292084006277896</v>
+        <v>0.04369150152414456</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07735713310772929</v>
+        <v>0.07457893303593054</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02328279211037055</v>
+        <v>0.02386766697509435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04048825570507258</v>
+        <v>0.04077875662800623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02844760334573107</v>
+        <v>0.02861598107614476</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05333849710141823</v>
+        <v>0.05395910236137629</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02012106971746418</v>
+        <v>0.01991377590442734</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04858803997927321</v>
+        <v>0.04939947499538929</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02914449784114647</v>
+        <v>0.02946244880913915</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06139574137934021</v>
+        <v>0.05823735364397861</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08230313480379328</v>
+        <v>0.08446741868566214</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1076842526745666</v>
+        <v>0.1093305691165333</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08520454994284117</v>
+        <v>0.08939286895994211</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1155744532041596</v>
+        <v>0.1167240312639026</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04708266376917082</v>
+        <v>0.04565047932142242</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07058939601421516</v>
+        <v>0.07160873336984937</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05359432451459574</v>
+        <v>0.0541722647317552</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08049734718266928</v>
+        <v>0.0832759075741011</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.007056991886285145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05688781456052597</v>
+        <v>0.05688781456052595</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04534502405687055</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003211929845909274</v>
+        <v>0.003175569325051715</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0215690274392849</v>
+        <v>0.02177528935953347</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03699111900817405</v>
+        <v>0.03595897630521129</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02721616387386279</v>
+        <v>0.02702338608449271</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06204068568061698</v>
+        <v>0.06423590507203729</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02200135938842702</v>
+        <v>0.02357267891499681</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07164744710483777</v>
+        <v>0.07493600711947873</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.017146679148743</v>
+        <v>0.01792218034599183</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04777074801664242</v>
+        <v>0.04616729066476683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01449343307739339</v>
+        <v>0.01534174068285915</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06131448517844941</v>
+        <v>0.06324320193902618</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0351694990922985</v>
+        <v>0.03116542534761049</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07282731649239547</v>
+        <v>0.07045906835875207</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02246755868023029</v>
+        <v>0.02589070297899983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08572337105055478</v>
+        <v>0.08397007235793078</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07162827092292971</v>
+        <v>0.07450186788367882</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1272953191754809</v>
+        <v>0.1256323193868839</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07113670821288033</v>
+        <v>0.07202928265495831</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1216273767334143</v>
+        <v>0.1226606218063154</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04459670941563918</v>
+        <v>0.04437154228874723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08820242108743312</v>
+        <v>0.08741322615646289</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0405529594848886</v>
+        <v>0.04157221931120299</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09695460222956745</v>
+        <v>0.09985227451003707</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07067107166724933</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05370766686865012</v>
+        <v>0.05370766686865011</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02676854709552468</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002402647343101819</v>
+        <v>0.002416048352750935</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005477679194930242</v>
+        <v>0.005422467974195779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007628419228824697</v>
+        <v>0.007701295232374818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02385951605043939</v>
+        <v>0.02189692625776231</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02671791944449245</v>
+        <v>0.02735570417628875</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07522337601623362</v>
+        <v>0.07461641416408703</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04717711404706774</v>
+        <v>0.04644870950120263</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03769427001717188</v>
+        <v>0.03838071171694096</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01721049439723768</v>
+        <v>0.01694901894946745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04384919659495255</v>
+        <v>0.04336033909996035</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03109469574074002</v>
+        <v>0.03251528713823838</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03556695213209961</v>
+        <v>0.03486698146571851</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02050707243900583</v>
+        <v>0.02477437452406695</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03084382330659009</v>
+        <v>0.02904623983104898</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03555296812851337</v>
+        <v>0.03602987750083009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07695085395458461</v>
+        <v>0.07700806633476852</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06939905293779067</v>
+        <v>0.06826547818629233</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1350944441005932</v>
+        <v>0.1341730547821258</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09960820202623159</v>
+        <v>0.09795032661578033</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07530345517596705</v>
+        <v>0.07578410489135444</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0399572166152977</v>
+        <v>0.04013539465507888</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07692442849551663</v>
+        <v>0.07849990128947702</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06185424516087201</v>
+        <v>0.0634147247479343</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06698417829409471</v>
+        <v>0.0648325838040303</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.09131480700744093</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04965081830740318</v>
+        <v>0.04965081830740316</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.07955390976548936</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02162448548538134</v>
+        <v>0.02185755998310254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0103538272058114</v>
+        <v>0.01052620956383993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02805264429752895</v>
+        <v>0.02806973857804327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002879894379983769</v>
+        <v>0.003530924600937408</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07584585316756116</v>
+        <v>0.07401353011942843</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1101528048639732</v>
+        <v>0.1068780005849712</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05887809802598622</v>
+        <v>0.05557441500274585</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03378278363152352</v>
+        <v>0.03283474236343252</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05805551240279504</v>
+        <v>0.05619127302863247</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06655258042718556</v>
+        <v>0.06728373744934729</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05209202466901044</v>
+        <v>0.05190137784102533</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02175022253865291</v>
+        <v>0.02249427161633907</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0750406927667247</v>
+        <v>0.08149975644044606</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05970939174040537</v>
+        <v>0.06004171517533229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09137147909588919</v>
+        <v>0.09165743460671888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03188031616286396</v>
+        <v>0.02958164724610851</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1670279288517466</v>
+        <v>0.1676407316328652</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2099449436246237</v>
+        <v>0.2069879908372997</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1338836942095724</v>
+        <v>0.1326285612811908</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07006852160660718</v>
+        <v>0.06955297190265894</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1096352456978648</v>
+        <v>0.1087420445166317</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1216409380293678</v>
+        <v>0.1224179252351286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1003474455455011</v>
+        <v>0.1015276298920449</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04305309259011908</v>
+        <v>0.04390429165706917</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.08494159676030329</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06177039581687931</v>
+        <v>0.06177039581687927</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02016011301483625</v>
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.018123663506465</v>
+        <v>0.01850838100669899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003014541548960709</v>
+        <v>0.003015094145688949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02911318301517909</v>
+        <v>0.03085281522449226</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01457772312103367</v>
+        <v>0.0146429300517702</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0584275420987566</v>
+        <v>0.05747266640269014</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05288004213834872</v>
+        <v>0.05500409314591355</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04172081898091684</v>
+        <v>0.04192904873281414</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01069325728995726</v>
+        <v>0.009171104298465137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04337479598954937</v>
+        <v>0.04474732112519147</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03298546146673121</v>
+        <v>0.03260036809569825</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04218853030188478</v>
+        <v>0.04019881381245284</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02649450750264764</v>
+        <v>0.03310826668843842</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06330047961242373</v>
+        <v>0.06545880155481699</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03449775201525203</v>
+        <v>0.02908235690990503</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07250151603575561</v>
+        <v>0.07646260001002429</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05784714144306727</v>
+        <v>0.06082195594031806</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1247982510105155</v>
+        <v>0.1240313315168902</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1213756837070899</v>
+        <v>0.1183339227954682</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08596623424593342</v>
+        <v>0.0843641352367374</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03369797265255187</v>
+        <v>0.03345121590382041</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08396493918898663</v>
+        <v>0.08450891179087447</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06874504504535044</v>
+        <v>0.07161229293667552</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0749685256090247</v>
+        <v>0.0708943469949298</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.03442544822318775</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.06938826998831392</v>
+        <v>0.06938826998831393</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0106992583598581</v>
+        <v>0.01038045689936165</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02865609759781934</v>
+        <v>0.0290870565563566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006554504624158579</v>
+        <v>0.006813525862523005</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03055731415352609</v>
+        <v>0.03188714497449425</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05712870102984404</v>
+        <v>0.05597801528054058</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05499142026755344</v>
+        <v>0.05392250014076053</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03773421475292759</v>
+        <v>0.03674439604769403</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07316924169947103</v>
+        <v>0.07493517519771772</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03734054304287934</v>
+        <v>0.03740310466175603</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04461705308321432</v>
+        <v>0.04517356954332662</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02418915331400056</v>
+        <v>0.02510262804380545</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05720225032975012</v>
+        <v>0.05779949395596706</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03332895277303556</v>
+        <v>0.03114453048755063</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06116139122920792</v>
+        <v>0.0628057871422617</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02898339047718971</v>
+        <v>0.0279052807720232</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06364320703339627</v>
+        <v>0.06351943760336243</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0996097964318748</v>
+        <v>0.09655228642392943</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09483356064826139</v>
+        <v>0.09581370242275558</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07386069194183612</v>
+        <v>0.0730984359921516</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1108722550305364</v>
+        <v>0.1109649400015706</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05999060424094751</v>
+        <v>0.06065822623081792</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0732586249023978</v>
+        <v>0.07282685006078259</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04661020615633327</v>
+        <v>0.04511062833747084</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08293233498590567</v>
+        <v>0.08239851506012345</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.03266465654411835</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.01938931608425078</v>
+        <v>0.01938931608425079</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.0703004055923187</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02760101079579767</v>
+        <v>0.02702798067070055</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01600162916941062</v>
+        <v>0.01605494301446098</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02219734918719409</v>
+        <v>0.022504400792047</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01178293334202741</v>
+        <v>0.01153462899015846</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05195551376120374</v>
+        <v>0.05327092295639436</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04947800102682764</v>
+        <v>0.0496371697944372</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06742560432414114</v>
+        <v>0.0681927546670698</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06282502941540663</v>
+        <v>0.06187665624593853</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04433732588595213</v>
+        <v>0.04462768265442636</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03751974385968095</v>
+        <v>0.03732168231336466</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04905886532255185</v>
+        <v>0.04860360027704411</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04046607266472668</v>
+        <v>0.04060497123583928</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05642444107921114</v>
+        <v>0.05788946261588652</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04285154882706782</v>
+        <v>0.0421195494928686</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04766659306428414</v>
+        <v>0.04747663881998854</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02975914471348379</v>
+        <v>0.0291803432923297</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0900665069925375</v>
+        <v>0.09175935408622694</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08651024534100631</v>
+        <v>0.08457233063750323</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.111729168578884</v>
+        <v>0.113491353084409</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09460834632641441</v>
+        <v>0.094124615392935</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0678927075048987</v>
+        <v>0.06791882437480291</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05862310975724423</v>
+        <v>0.05959084118528633</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07501223335519819</v>
+        <v>0.07420011217763896</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05918546581970811</v>
+        <v>0.05838729821456142</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.02186187853666031</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.03447877504063267</v>
+        <v>0.03447877504063266</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.06456586112839455</v>
@@ -1773,7 +1773,7 @@
         <v>0.07100815138412862</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.07669694002990696</v>
+        <v>0.07669694002990694</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.04331970597573254</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02538995448569331</v>
+        <v>0.02515105171171897</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01732134187047071</v>
+        <v>0.01767339873282708</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.028874175203278</v>
+        <v>0.02869012686092539</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07415071258014891</v>
+        <v>0.07459121020473394</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06229299708715007</v>
+        <v>0.06216570752465153</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.06977869451680188</v>
+        <v>0.06920088941080593</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.05256217387374502</v>
+        <v>0.05306928403960113</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.04175302855274349</v>
+        <v>0.04192243259504641</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.05196923747121174</v>
+        <v>0.05129042724910409</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03870741165667632</v>
+        <v>0.03801009333163842</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02792932627635689</v>
+        <v>0.02754892388969554</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04103873602857809</v>
+        <v>0.04112993669365869</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09294212985307433</v>
+        <v>0.09303465425225178</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.07968540229842778</v>
+        <v>0.08059476433475893</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.08474513491205733</v>
+        <v>0.08369801475756017</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.06447780230015633</v>
+        <v>0.06447346357131743</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.05252616199498613</v>
+        <v>0.05294411666640923</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06129302740981669</v>
+        <v>0.06093205075749934</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2765</v>
+        <v>2820</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5667</v>
+        <v>5637</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3591</v>
+        <v>3553</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13715</v>
+        <v>13437</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14036</v>
+        <v>13437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16451</v>
+        <v>16197</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9342</v>
+        <v>10001</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18747</v>
+        <v>18124</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21626</v>
+        <v>22117</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22872</v>
+        <v>22273</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12427</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13211</v>
+        <v>12593</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19874</v>
+        <v>19784</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15095</v>
+        <v>15269</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9879</v>
+        <v>9824</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31150</v>
+        <v>32034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31995</v>
+        <v>31082</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34815</v>
+        <v>37503</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20285</v>
+        <v>20859</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39381</v>
+        <v>39508</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>44937</v>
+        <v>44757</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45093</v>
+        <v>44654</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25510</v>
+        <v>26323</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1079</v>
+        <v>998</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6125</v>
+        <v>5452</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3231</v>
+        <v>3152</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11614</v>
+        <v>11650</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20423</v>
+        <v>20142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30459</v>
+        <v>30806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22451</v>
+        <v>22854</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42176</v>
+        <v>40661</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23214</v>
+        <v>23797</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>41590</v>
+        <v>41889</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>29178</v>
+        <v>29350</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>57332</v>
+        <v>57999</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9921</v>
+        <v>9819</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24512</v>
+        <v>24921</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14647</v>
+        <v>14807</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32519</v>
+        <v>30846</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41477</v>
+        <v>42567</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>56290</v>
+        <v>57150</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44569</v>
+        <v>46760</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>63013</v>
+        <v>63639</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>46943</v>
+        <v>45515</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>72511</v>
+        <v>73558</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54970</v>
+        <v>55562</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>86524</v>
+        <v>89511</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6969</v>
+        <v>7036</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11671</v>
+        <v>11345</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9129</v>
+        <v>9064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21157</v>
+        <v>21906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7399</v>
+        <v>7928</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25534</v>
+        <v>26706</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11218</v>
+        <v>11726</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>31726</v>
+        <v>30661</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9491</v>
+        <v>10047</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>41196</v>
+        <v>42492</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11214</v>
+        <v>9937</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23532</v>
+        <v>22766</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7157</v>
+        <v>8248</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27046</v>
+        <v>26492</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24025</v>
+        <v>24989</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43410</v>
+        <v>42843</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23924</v>
+        <v>24224</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>43346</v>
+        <v>43714</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29178</v>
+        <v>29030</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>58578</v>
+        <v>58054</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26557</v>
+        <v>27225</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>65142</v>
+        <v>67089</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2049</v>
+        <v>2028</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2822</v>
+        <v>2849</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8903</v>
+        <v>8171</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9925</v>
+        <v>10161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29185</v>
+        <v>28949</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18271</v>
+        <v>17989</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15893</v>
+        <v>16182</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12566</v>
+        <v>12375</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>33411</v>
+        <v>33039</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>23546</v>
+        <v>24622</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>28268</v>
+        <v>27711</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7355</v>
+        <v>8886</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11535</v>
+        <v>10863</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13153</v>
+        <v>13330</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28714</v>
+        <v>28735</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25779</v>
+        <v>25358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>52413</v>
+        <v>52056</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38577</v>
+        <v>37934</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31750</v>
+        <v>31953</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>29174</v>
+        <v>29304</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58613</v>
+        <v>59813</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>46839</v>
+        <v>48021</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>53237</v>
+        <v>51527</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4396</v>
+        <v>4444</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2201</v>
+        <v>2238</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5925</v>
+        <v>5929</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>592</v>
+        <v>726</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15751</v>
+        <v>15370</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>24189</v>
+        <v>23469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12870</v>
+        <v>12148</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7676</v>
+        <v>7461</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>23859</v>
+        <v>23093</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>28765</v>
+        <v>29081</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>22390</v>
+        <v>22308</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9415</v>
+        <v>9737</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15256</v>
+        <v>16570</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12695</v>
+        <v>12766</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19300</v>
+        <v>19360</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6557</v>
+        <v>6084</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>34686</v>
+        <v>34814</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46102</v>
+        <v>45453</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29265</v>
+        <v>28991</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15921</v>
+        <v>15803</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>45057</v>
+        <v>44690</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>52574</v>
+        <v>52910</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>43130</v>
+        <v>43637</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>18637</v>
+        <v>19005</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4966</v>
+        <v>5071</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>793</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7881</v>
+        <v>8352</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4055</v>
+        <v>4073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>16309</v>
+        <v>16043</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14442</v>
+        <v>15022</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11004</v>
+        <v>11059</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5870</v>
+        <v>5035</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>23992</v>
+        <v>24751</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>17688</v>
+        <v>17482</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>22548</v>
+        <v>21485</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7175</v>
+        <v>8966</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17343</v>
+        <v>17934</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9077</v>
+        <v>7652</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19627</v>
+        <v>20699</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16090</v>
+        <v>16917</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>34836</v>
+        <v>34622</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33150</v>
+        <v>32319</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22674</v>
+        <v>22251</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>18499</v>
+        <v>18363</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>46443</v>
+        <v>46744</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>36864</v>
+        <v>38401</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>40067</v>
+        <v>37890</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6580</v>
+        <v>6384</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18993</v>
+        <v>19279</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4303</v>
+        <v>4473</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>21992</v>
+        <v>22949</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>36461</v>
+        <v>35726</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>38097</v>
+        <v>37356</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>26085</v>
+        <v>25401</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>56491</v>
+        <v>57854</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>46797</v>
+        <v>46875</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>60481</v>
+        <v>61236</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>32603</v>
+        <v>33835</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>85331</v>
+        <v>86222</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20498</v>
+        <v>19155</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>40537</v>
+        <v>41627</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19029</v>
+        <v>18321</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>45803</v>
+        <v>45714</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>63573</v>
+        <v>61622</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>65698</v>
+        <v>66377</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>51059</v>
+        <v>50533</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>85600</v>
+        <v>85671</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>75183</v>
+        <v>76020</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>99307</v>
+        <v>98721</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>62824</v>
+        <v>60802</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>123714</v>
+        <v>122917</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>20501</v>
+        <v>20076</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12433</v>
+        <v>12474</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>17282</v>
+        <v>17522</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9404</v>
+        <v>9205</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>40708</v>
+        <v>41738</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>40647</v>
+        <v>40778</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>55705</v>
+        <v>56339</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>52145</v>
+        <v>51358</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>67672</v>
+        <v>68115</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>59975</v>
+        <v>59658</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>78727</v>
+        <v>77997</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>65882</v>
+        <v>66108</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>41911</v>
+        <v>42999</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>33294</v>
+        <v>32726</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>37112</v>
+        <v>36965</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>23750</v>
+        <v>23288</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>70568</v>
+        <v>71894</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>71070</v>
+        <v>69478</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>92307</v>
+        <v>93763</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>78525</v>
+        <v>78124</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>103624</v>
+        <v>103664</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>93709</v>
+        <v>95255</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>120376</v>
+        <v>119073</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>96359</v>
+        <v>95059</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>86787</v>
+        <v>85970</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>58795</v>
+        <v>59990</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>101963</v>
+        <v>101313</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>262999</v>
+        <v>264561</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>220800</v>
+        <v>220349</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>260436</v>
+        <v>258279</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>366093</v>
+        <v>369625</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>289720</v>
+        <v>290895</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>377483</v>
+        <v>372553</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>132308</v>
+        <v>129924</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>94802</v>
+        <v>93511</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>144919</v>
+        <v>145241</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>329649</v>
+        <v>329977</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>282448</v>
+        <v>285672</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>316295</v>
+        <v>312387</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>449085</v>
+        <v>449055</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>364473</v>
+        <v>367374</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>445208</v>
+        <v>442586</v>
       </c>
     </row>
     <row r="40">
